--- a/developer-usability-study/study-result/result_answers.xlsx
+++ b/developer-usability-study/study-result/result_answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syq/Documents/研/研1/dApp升级/SmartUpdater论文/TSE-修改/SmartUpdater/developer-usability-study/study-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09D963E6-206B-4E44-92F4-5EFED3413C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE2B8317-BA61-E14A-B8C9-6A861EF029CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="22420" windowWidth="30240" windowHeight="17360" xr2:uid="{F6FD7F2A-E65B-244C-8614-E312355BC8CE}"/>
+    <workbookView xWindow="3700" yWindow="22360" windowWidth="30240" windowHeight="17360" xr2:uid="{F6FD7F2A-E65B-244C-8614-E312355BC8CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="199" uniqueCount="106">
-  <si>
-    <t>SmartUpdater Developer Study Answer Sheet</t>
-  </si>
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="313" uniqueCount="94">
   <si>
     <t>A(chen)</t>
   </si>
@@ -140,12 +137,6 @@
     <t>(Time in Minutes)</t>
   </si>
   <si>
-    <t>(Cost in gas)</t>
-  </si>
-  <si>
-    <t>How much gas does it take to deploy the converted contract using SmartUpdater?</t>
-  </si>
-  <si>
     <t>Task 2</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
   </si>
   <si>
     <t>Additional Feedback</t>
-  </si>
-  <si>
-    <t>storage collision</t>
   </si>
   <si>
     <t>How many years of experience do you have in Solidity development?</t>
@@ -250,9 +238,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>How much gas does it take to deploy the converted contract? </t>
-  </si>
-  <si>
     <t>T1Q12</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -270,9 +255,6 @@
     <t>How difficult is the maintenance process using SmartUpdater?</t>
   </si>
   <si>
-    <t>How much gas does it take to deploy the new contract using SmartUpdater? </t>
-  </si>
-  <si>
     <t>I(xu)</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -301,10 +283,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>How much gas does it take to deploy the converted contract using OpenZeppelin’s method?</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>T1Q2</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -326,18 +304,6 @@
   </si>
   <si>
     <t>T1Q14</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1Q15</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1Q16</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1Q17</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -372,35 +338,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>How much gas does it take to deploy the new manually converted contract?</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">How much gas does it take to deploy the new OpenZeppelin-based contract? </t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>T2Q9</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>T2Q10</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2Q11</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2Q12</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>(Time in Minutes)</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>(year number)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartUpdater Developer Study Answer Sheet --- MyartPoint</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartUpdater Developer Study Answer Sheet --- Hello</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartUpdater Developer Study Answer Sheet --- BancorBuyer</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,10 +658,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -711,30 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1087,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9F6B6D-F733-C247-9970-04B4F8D1D2EA}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1109,106 +1046,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="18">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="18">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="3">
         <v>9</v>
@@ -1217,42 +1154,42 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L4" s="3">
         <v>4</v>
@@ -1261,42 +1198,42 @@
         <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="3">
         <v>3</v>
@@ -1305,15 +1242,15 @@
         <v>5</v>
       </c>
       <c r="R5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -1355,15 +1292,15 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -1405,15 +1342,15 @@
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -1455,15 +1392,15 @@
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
@@ -1486,10 +1423,10 @@
       <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="21">
-        <v>3</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="J9" s="11">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11">
         <v>5</v>
       </c>
       <c r="N9" s="3">
@@ -1505,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1516,43 +1453,43 @@
     </row>
     <row r="11" spans="1:18" ht="18">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="3">
         <v>3</v>
@@ -1561,42 +1498,42 @@
         <v>5</v>
       </c>
       <c r="R12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="3">
         <v>3</v>
@@ -1605,42 +1542,42 @@
         <v>5</v>
       </c>
       <c r="R13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>2</v>
@@ -1649,15 +1586,15 @@
         <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -1687,11 +1624,11 @@
         <v>5</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" ref="N15:N25" si="0">ROUND(AVERAGE(C15:K15),2)</f>
+        <f t="shared" ref="N15:N19" si="0">ROUND(AVERAGE(C15:K15),2)</f>
         <v>3.11</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" ref="O15:O25" si="1">ROUND(_xlfn.STDEV.S(C15:K15), 2)</f>
+        <f t="shared" ref="O15:O19" si="1">ROUND(_xlfn.STDEV.S(C15:K15), 2)</f>
         <v>1.54</v>
       </c>
       <c r="P15" s="3">
@@ -1699,15 +1636,15 @@
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -1749,67 +1686,65 @@
         <v>3</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="18" customFormat="1">
-      <c r="A17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="17">
-        <v>6</v>
-      </c>
-      <c r="F17" s="17">
-        <v>3</v>
-      </c>
-      <c r="G17" s="17">
-        <v>4</v>
-      </c>
-      <c r="H17" s="17">
-        <v>3</v>
-      </c>
-      <c r="I17" s="17">
-        <v>4</v>
-      </c>
-      <c r="J17" s="17">
-        <v>4</v>
-      </c>
-      <c r="K17" s="17">
-        <v>5</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <f t="shared" ref="N17" si="2">ROUND(AVERAGE(C17:K17),2)</f>
         <v>4</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="3">
         <f t="shared" ref="O17" si="3">ROUND(_xlfn.STDEV.S(C17:K17), 2)</f>
         <v>1</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="3">
         <f>ROUND(MEDIAN(C17:K17),2)</f>
         <v>4</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1851,15 +1786,15 @@
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -1901,67 +1836,65 @@
         <v>5</v>
       </c>
       <c r="R19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="18" customFormat="1">
-      <c r="A20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="17">
-        <v>3</v>
-      </c>
-      <c r="D20" s="17">
-        <v>4</v>
-      </c>
-      <c r="E20" s="17">
-        <v>2</v>
-      </c>
-      <c r="F20" s="17">
-        <v>4</v>
-      </c>
-      <c r="G20" s="17">
-        <v>3</v>
-      </c>
-      <c r="H20" s="17">
-        <v>4</v>
-      </c>
-      <c r="I20" s="17">
-        <v>5</v>
-      </c>
-      <c r="J20" s="17">
-        <v>4</v>
-      </c>
-      <c r="K20" s="17">
-        <v>2</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
         <f t="shared" ref="N20" si="4">ROUND(AVERAGE(C20:K20),2)</f>
         <v>3.44</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="3">
         <f t="shared" ref="O20" si="5">ROUND(_xlfn.STDEV.S(C20:K20), 2)</f>
         <v>1.01</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="3">
         <f>ROUND(MEDIAN(C20:K20), 2)</f>
         <v>4</v>
       </c>
-      <c r="R20" s="18" t="s">
-        <v>32</v>
+      <c r="R20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -2002,16 +1935,16 @@
         <f>ROUND(MEDIAN(C21:K21), 2)</f>
         <v>1</v>
       </c>
-      <c r="R21" s="18" t="s">
-        <v>32</v>
+      <c r="R21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3">
         <v>6</v>
@@ -2055,19 +1988,19 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
         <v>40</v>
       </c>
-      <c r="D23" s="3">
-        <v>25</v>
-      </c>
       <c r="E23" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
@@ -2085,897 +2018,2578 @@
         <v>45</v>
       </c>
       <c r="K23" s="3">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" ref="N23:N24" si="6">ROUND(AVERAGE(C23:K23),2)</f>
-        <v>52.11</v>
+        <v>49.44</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" ref="O23:O24" si="7">ROUND(_xlfn.STDEV.S(C23:K23), 2)</f>
-        <v>30.6</v>
+        <v>33.11</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" ref="P23:P24" si="8">ROUND(MEDIAN(C23:K23), 2)</f>
         <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="22" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="17">
-        <v>37</v>
-      </c>
-      <c r="D24" s="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="3">
         <v>20</v>
       </c>
-      <c r="E24" s="17">
+      <c r="D24" s="3">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3">
         <v>20</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="3">
         <v>45</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="3">
         <v>50</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="3">
         <v>65</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="3">
         <v>25</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="3">
         <v>30</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="3">
         <v>25</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
         <f t="shared" si="6"/>
-        <v>35.22</v>
-      </c>
-      <c r="O24" s="17">
+        <v>35</v>
+      </c>
+      <c r="O24" s="3">
         <f t="shared" si="7"/>
-        <v>15.43</v>
-      </c>
-      <c r="P24" s="17">
+        <v>15.41</v>
+      </c>
+      <c r="P24" s="3">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18" t="s">
-        <v>104</v>
+      <c r="Q24"/>
+      <c r="R24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
         <v>4</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
         <v>3</v>
       </c>
       <c r="K25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3">
         <f>ROUND(AVERAGE(C25:K25),2)</f>
-        <v>2.78</v>
+        <v>4.22</v>
       </c>
       <c r="O25" s="3">
         <f>ROUND(_xlfn.STDEV.S(C25:K25), 2)</f>
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="P25" s="3">
         <f>ROUND(MEDIAN(C25:K25), 2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1779653</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1965573</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2069673</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1836098</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1873104</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1713625</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2093598</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1948878</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2068878</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="3">
-        <f>ROUND(AVERAGE(C26:K26),2)</f>
-        <v>1927675.56</v>
-      </c>
-      <c r="O26" s="3">
-        <f>ROUND(_xlfn.STDEV.S(C26:K26), 2)</f>
-        <v>136294.82999999999</v>
-      </c>
-      <c r="P26" s="3">
-        <f>ROUND(MEDIAN(C26:K26), 2)</f>
-        <v>1948878</v>
-      </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="18">
+      <c r="A27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="18" customFormat="1">
-      <c r="A27" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>4</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5</v>
+      </c>
+      <c r="N28" s="3">
+        <f>ROUND(AVERAGE(C28:K28),2)</f>
+        <v>3.56</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" ref="O28:O32" si="9">ROUND(_xlfn.STDEV.S(C28:K28), 2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" ref="P28:P32" si="10">ROUND(MEDIAN(C28:K28), 2)</f>
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
+        <v>6</v>
+      </c>
+      <c r="N29" s="3">
+        <f>ROUND(AVERAGE(C29:K29),2)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="9"/>
+        <v>0.78</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="17">
-        <v>2491359</v>
-      </c>
-      <c r="D27" s="17">
-        <v>2564672</v>
-      </c>
-      <c r="E27" s="17">
-        <v>2693285</v>
-      </c>
-      <c r="F27" s="17">
-        <v>2563804</v>
-      </c>
-      <c r="G27" s="17">
-        <v>2774810</v>
-      </c>
-      <c r="H27" s="17">
-        <v>2494331</v>
-      </c>
-      <c r="I27" s="17">
-        <v>2738741</v>
-      </c>
-      <c r="J27" s="17">
-        <v>2637460</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2680584</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17">
-        <f>ROUND(AVERAGE(C27:K27),2)</f>
-        <v>2626560.67</v>
-      </c>
-      <c r="O27" s="17">
-        <f>ROUND(_xlfn.STDEV.S(C27:K27), 2)</f>
-        <v>103431.45</v>
-      </c>
-      <c r="P27" s="17">
-        <f>ROUND(MEDIAN(C27:K27), 2)</f>
-        <v>2637460</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="17">
-      <c r="A28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2347033</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="R28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="18">
-      <c r="A30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="12"/>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3">
+        <f>ROUND(AVERAGE(C30:K30),2)</f>
+        <v>4.22</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="9"/>
+        <v>0.83</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
         <v>3</v>
       </c>
       <c r="I31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" s="3">
         <f>ROUND(AVERAGE(C31:K31),2)</f>
-        <v>3.56</v>
+        <v>1.89</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" ref="O30:O35" si="9">ROUND(_xlfn.STDEV.S(C31:K31), 2)</f>
-        <v>0.73</v>
+        <f t="shared" si="9"/>
+        <v>0.78</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" ref="P30:P35" si="10">ROUND(MEDIAN(C31:K31), 2)</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="R31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="22" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="3">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
       </c>
       <c r="N32" s="3">
         <f>ROUND(AVERAGE(C32:K32),2)</f>
-        <v>5.1100000000000003</v>
+        <v>1.67</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="9"/>
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="118" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="3">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
-        <v>6</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
-        <f>ROUND(AVERAGE(C33:K33),2)</f>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="O33" s="3">
-        <f t="shared" si="9"/>
-        <v>1.01</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="10"/>
+      <c r="B33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>5</v>
       </c>
       <c r="R33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="31" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3">
         <v>40</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
       <c r="G34" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H34" s="3">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I34" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="K34" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N34" s="3">
-        <f>ROUND(AVERAGE(C34:K34),2)</f>
-        <v>1.89</v>
+        <f t="shared" ref="N34:N36" si="11">ROUND(AVERAGE(C34:K34),2)</f>
+        <v>32.22</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="9"/>
-        <v>0.78</v>
+        <f>ROUND(_xlfn.STDEV.S(C34:K34), 2)</f>
+        <v>10.34</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" ref="P34:P36" si="12">ROUND(MEDIAN(C34:K34), 2)</f>
+        <v>30</v>
       </c>
       <c r="R34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="22" customHeight="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="7">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7">
+        <v>25</v>
+      </c>
+      <c r="E35" s="7">
+        <v>20</v>
+      </c>
+      <c r="F35" s="7">
+        <v>35</v>
+      </c>
+      <c r="G35" s="7">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
+        <v>40</v>
+      </c>
+      <c r="I35" s="7">
+        <v>30</v>
+      </c>
+      <c r="J35" s="7">
+        <v>25</v>
+      </c>
+      <c r="K35" s="7">
+        <v>25</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="11"/>
+        <v>28.89</v>
+      </c>
+      <c r="O35" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C35:K35), 2)</f>
+        <v>7.82</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="R35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7">
+        <v>5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7</v>
+      </c>
+      <c r="J36" s="7">
+        <v>4</v>
+      </c>
+      <c r="K36" s="7">
+        <v>5</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="11"/>
+        <v>5.22</v>
+      </c>
+      <c r="O36" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C36:K36), 2)</f>
+        <v>0.97</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="R36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="21">
+      <c r="A48" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+    </row>
+    <row r="49" spans="1:18" s="2" customFormat="1" ht="18">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="18">
+      <c r="A50" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3</v>
+      </c>
+      <c r="E51" s="3">
+        <v>6</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3</v>
+      </c>
+      <c r="K51" s="3">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" ref="N51:N55" si="13">ROUND(AVERAGE(C51:K51),2)</f>
+        <v>4</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" ref="O51:O55" si="14">ROUND(_xlfn.STDEV.S(C51:K51), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="P51" s="3">
+        <f>ROUND(MEDIAN(C51:K51), 2)</f>
+        <v>4</v>
+      </c>
+      <c r="R51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="13"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="14"/>
+        <v>0.73</v>
+      </c>
+      <c r="P52" s="3">
+        <f>ROUND(MEDIAN(C52:K52),2)</f>
+        <v>4</v>
+      </c>
+      <c r="R52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3">
+        <v>5</v>
+      </c>
+      <c r="H53" s="3">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3">
+        <v>5</v>
+      </c>
+      <c r="J53" s="3">
+        <v>4</v>
+      </c>
+      <c r="K53" s="3">
+        <v>6</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="13"/>
+        <v>4.78</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="14"/>
+        <v>0.83</v>
+      </c>
+      <c r="P53" s="3">
+        <f>ROUND(MEDIAN(C53:K53),2)</f>
+        <v>5</v>
+      </c>
+      <c r="R53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>6</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="13"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P54" s="3">
+        <f>ROUND(MEDIAN(C54:K54), 2)</f>
+        <v>5</v>
+      </c>
+      <c r="R54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3</v>
+      </c>
+      <c r="H55" s="3">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3">
+        <v>5</v>
+      </c>
+      <c r="J55" s="3">
+        <v>4</v>
+      </c>
+      <c r="K55" s="3">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="13"/>
+        <v>3.44</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="14"/>
+        <v>1.01</v>
+      </c>
+      <c r="P55" s="3">
+        <f>ROUND(MEDIAN(C55:K55), 2)</f>
+        <v>4</v>
+      </c>
+      <c r="R55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3">
+        <f>ROUND(AVERAGE(C56:K56),2)</f>
+        <v>1.44</v>
+      </c>
+      <c r="O56" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C56:K56), 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="P56" s="3">
+        <f>ROUND(MEDIAN(C56:K56), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="R56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>6</v>
+      </c>
+      <c r="H57" s="3">
+        <v>6</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
+        <f>ROUND(AVERAGE(C57:K57),2)</f>
+        <v>5.56</v>
+      </c>
+      <c r="O57" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C57:K57), 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="P57" s="3">
+        <f>ROUND(MEDIAN(C57:K57), 2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="3">
+        <v>30</v>
+      </c>
+      <c r="D58" s="3">
+        <v>15</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3">
+        <v>60</v>
+      </c>
+      <c r="G58" s="3">
+        <v>80</v>
+      </c>
+      <c r="H58" s="3">
+        <v>50</v>
+      </c>
+      <c r="I58" s="3">
+        <v>35</v>
+      </c>
+      <c r="J58" s="3">
+        <v>35</v>
+      </c>
+      <c r="K58" s="3">
+        <v>34</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" ref="N58:N59" si="15">ROUND(AVERAGE(C58:K58),2)</f>
+        <v>40.44</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" ref="O58:O59" si="16">ROUND(_xlfn.STDEV.S(C58:K58), 2)</f>
+        <v>19.79</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" ref="P58:P59" si="17">ROUND(MEDIAN(C58:K58), 2)</f>
+        <v>35</v>
+      </c>
+      <c r="R58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="3">
+        <v>35</v>
+      </c>
+      <c r="D59" s="3">
+        <v>15</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45</v>
+      </c>
+      <c r="G59" s="3">
+        <v>50</v>
+      </c>
+      <c r="H59" s="3">
+        <v>60</v>
+      </c>
+      <c r="I59" s="3">
+        <v>25</v>
+      </c>
+      <c r="J59" s="3">
+        <v>30</v>
+      </c>
+      <c r="K59" s="3">
+        <v>25</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3">
+        <f t="shared" si="15"/>
+        <v>33.89</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="16"/>
+        <v>14.95</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="Q59"/>
+      <c r="R59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3">
+        <f>ROUND(AVERAGE(C60:K60),2)</f>
+        <v>4.22</v>
+      </c>
+      <c r="O60" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C60:K60), 2)</f>
+        <v>0.97</v>
+      </c>
+      <c r="P60" s="3">
+        <f>ROUND(MEDIAN(C60:K60), 2)</f>
+        <v>4</v>
+      </c>
+      <c r="Q60"/>
+      <c r="R60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="D61" s="8"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" ht="18">
+      <c r="A62" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3">
+        <v>5</v>
+      </c>
+      <c r="G63" s="3">
+        <v>4</v>
+      </c>
+      <c r="H63" s="3">
+        <v>4</v>
+      </c>
+      <c r="I63" s="3">
+        <v>4</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3</v>
+      </c>
+      <c r="K63" s="3">
+        <v>5</v>
+      </c>
+      <c r="N63" s="3">
+        <f>ROUND(AVERAGE(C63:K63),2)</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" ref="O63:O67" si="18">ROUND(_xlfn.STDEV.S(C63:K63), 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" ref="P63:P67" si="19">ROUND(MEDIAN(C63:K63), 2)</f>
+        <v>4</v>
+      </c>
+      <c r="R63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4</v>
+      </c>
+      <c r="E64" s="3">
+        <v>5</v>
+      </c>
+      <c r="F64" s="3">
+        <v>5</v>
+      </c>
+      <c r="G64" s="3">
+        <v>6</v>
+      </c>
+      <c r="H64" s="3">
+        <v>4</v>
+      </c>
+      <c r="I64" s="3">
+        <v>5</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4</v>
+      </c>
+      <c r="K64" s="3">
+        <v>6</v>
+      </c>
+      <c r="N64" s="3">
+        <f>ROUND(AVERAGE(C64:K64),2)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="18"/>
+        <v>0.78</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="R64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="3">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4</v>
+      </c>
+      <c r="I65" s="3">
+        <v>4</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2</v>
+      </c>
+      <c r="N65" s="3">
+        <f>ROUND(AVERAGE(C65:K65),2)</f>
+        <v>3</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="18"/>
+        <v>0.71</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="R65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3">
+        <f>ROUND(AVERAGE(C66:K66),2)</f>
+        <v>1.89</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="18"/>
+        <v>0.78</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="22" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>2</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3</v>
+      </c>
+      <c r="I67" s="3">
+        <v>2</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
+      </c>
+      <c r="N67" s="3">
+        <f>ROUND(AVERAGE(C67:K67),2)</f>
+        <v>1.67</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="18"/>
+        <v>0.71</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="31" customHeight="1">
+      <c r="A68" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B68" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10</v>
+      </c>
+      <c r="D68" s="3">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3">
+        <v>5</v>
+      </c>
+      <c r="F68" s="3">
+        <v>7</v>
+      </c>
+      <c r="G68" s="3">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3">
+        <v>10</v>
+      </c>
+      <c r="I68" s="3">
+        <v>15</v>
+      </c>
+      <c r="J68" s="3">
+        <v>12</v>
+      </c>
+      <c r="K68" s="3">
+        <v>5</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" ref="N68:N70" si="20">ROUND(AVERAGE(C68:K68),2)</f>
+        <v>9.11</v>
+      </c>
+      <c r="O68" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C68:K68), 2)</f>
+        <v>3.26</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" ref="P68:P70" si="21">ROUND(MEDIAN(C68:K68), 2)</f>
+        <v>10</v>
+      </c>
+      <c r="R68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="3">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3">
+        <v>5</v>
+      </c>
+      <c r="F69" s="3">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3">
+        <v>10</v>
+      </c>
+      <c r="H69" s="3">
+        <v>10</v>
+      </c>
+      <c r="I69" s="3">
+        <v>15</v>
+      </c>
+      <c r="J69" s="3">
+        <v>10</v>
+      </c>
+      <c r="K69" s="3">
+        <v>5</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="O69" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C69:K69), 2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="R69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5</v>
+      </c>
+      <c r="D70" s="7">
+        <v>6</v>
+      </c>
+      <c r="E70" s="7">
+        <v>4</v>
+      </c>
+      <c r="F70" s="7">
+        <v>5</v>
+      </c>
+      <c r="G70" s="7">
+        <v>6</v>
+      </c>
+      <c r="H70" s="7">
+        <v>8</v>
+      </c>
+      <c r="I70" s="7">
+        <v>7</v>
+      </c>
+      <c r="J70" s="7">
+        <v>4</v>
+      </c>
+      <c r="K70" s="7">
+        <v>5</v>
+      </c>
+      <c r="N70" s="3">
+        <f t="shared" si="20"/>
+        <v>5.56</v>
+      </c>
+      <c r="O70" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C70:K70), 2)</f>
+        <v>1.33</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="R70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="21">
+      <c r="A81" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+    </row>
+    <row r="82" spans="1:18" s="2" customFormat="1" ht="18">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="18">
+      <c r="A83" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>6</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>3</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2</v>
+      </c>
+      <c r="I84" s="3">
+        <v>3</v>
+      </c>
+      <c r="J84" s="3">
+        <v>3</v>
+      </c>
+      <c r="K84" s="3">
+        <v>5</v>
+      </c>
+      <c r="N84" s="3">
+        <f t="shared" ref="N84:N88" si="22">ROUND(AVERAGE(C84:K84),2)</f>
+        <v>3</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" ref="O84:O88" si="23">ROUND(_xlfn.STDEV.S(C84:K84), 2)</f>
+        <v>1.66</v>
+      </c>
+      <c r="P84" s="3">
+        <f>ROUND(MEDIAN(C84:K84), 2)</f>
+        <v>3</v>
+      </c>
+      <c r="R84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-      <c r="N35" s="3">
-        <f>ROUND(AVERAGE(C35:K35),2)</f>
+      <c r="C85" s="3">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>6</v>
+      </c>
+      <c r="F85" s="3">
+        <v>3</v>
+      </c>
+      <c r="G85" s="3">
+        <v>4</v>
+      </c>
+      <c r="H85" s="3">
+        <v>3</v>
+      </c>
+      <c r="I85" s="3">
+        <v>4</v>
+      </c>
+      <c r="J85" s="3">
+        <v>4</v>
+      </c>
+      <c r="K85" s="3">
+        <v>5</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P85" s="3">
+        <f>ROUND(MEDIAN(C85:K85),2)</f>
+        <v>4</v>
+      </c>
+      <c r="R85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4</v>
+      </c>
+      <c r="G86" s="3">
+        <v>5</v>
+      </c>
+      <c r="H86" s="3">
+        <v>4</v>
+      </c>
+      <c r="I86" s="3">
+        <v>5</v>
+      </c>
+      <c r="J86" s="3">
+        <v>4</v>
+      </c>
+      <c r="K86" s="3">
+        <v>6</v>
+      </c>
+      <c r="N86" s="3">
+        <f t="shared" si="22"/>
+        <v>4.78</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="23"/>
+        <v>0.83</v>
+      </c>
+      <c r="P86" s="3">
+        <f>ROUND(MEDIAN(C86:K86),2)</f>
+        <v>5</v>
+      </c>
+      <c r="R86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="3">
+        <v>4</v>
+      </c>
+      <c r="D87" s="3">
+        <v>4</v>
+      </c>
+      <c r="E87" s="3">
+        <v>3</v>
+      </c>
+      <c r="F87" s="3">
+        <v>6</v>
+      </c>
+      <c r="G87" s="3">
+        <v>5</v>
+      </c>
+      <c r="H87" s="3">
+        <v>5</v>
+      </c>
+      <c r="I87" s="3">
+        <v>6</v>
+      </c>
+      <c r="J87" s="3">
+        <v>5</v>
+      </c>
+      <c r="K87" s="3">
+        <v>3</v>
+      </c>
+      <c r="N87" s="3">
+        <f t="shared" si="22"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="23"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P87" s="3">
+        <f>ROUND(MEDIAN(C87:K87), 2)</f>
+        <v>5</v>
+      </c>
+      <c r="R87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3</v>
+      </c>
+      <c r="D88" s="3">
+        <v>4</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3">
+        <v>4</v>
+      </c>
+      <c r="G88" s="3">
+        <v>3</v>
+      </c>
+      <c r="H88" s="3">
+        <v>4</v>
+      </c>
+      <c r="I88" s="3">
+        <v>5</v>
+      </c>
+      <c r="J88" s="3">
+        <v>4</v>
+      </c>
+      <c r="K88" s="3">
+        <v>2</v>
+      </c>
+      <c r="N88" s="3">
+        <f t="shared" si="22"/>
+        <v>3.44</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="23"/>
+        <v>1.01</v>
+      </c>
+      <c r="P88" s="3">
+        <f>ROUND(MEDIAN(C88:K88), 2)</f>
+        <v>4</v>
+      </c>
+      <c r="R88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="N89" s="3">
+        <f>ROUND(AVERAGE(C89:K89),2)</f>
+        <v>1.44</v>
+      </c>
+      <c r="O89" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C89:K89), 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="P89" s="3">
+        <f>ROUND(MEDIAN(C89:K89), 2)</f>
+        <v>1</v>
+      </c>
+      <c r="R89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="3">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3">
+        <v>6</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5</v>
+      </c>
+      <c r="G90" s="3">
+        <v>6</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6</v>
+      </c>
+      <c r="I90" s="3">
+        <v>5</v>
+      </c>
+      <c r="J90" s="3">
+        <v>6</v>
+      </c>
+      <c r="K90" s="3">
+        <v>5</v>
+      </c>
+      <c r="N90" s="3">
+        <f>ROUND(AVERAGE(C90:K90),2)</f>
+        <v>5.56</v>
+      </c>
+      <c r="O90" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C90:K90), 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="P90" s="3">
+        <f>ROUND(MEDIAN(C90:K90), 2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="3">
+        <v>35</v>
+      </c>
+      <c r="D91" s="3">
+        <v>20</v>
+      </c>
+      <c r="E91" s="3">
+        <v>25</v>
+      </c>
+      <c r="F91" s="3">
+        <v>60</v>
+      </c>
+      <c r="G91" s="3">
+        <v>80</v>
+      </c>
+      <c r="H91" s="3">
+        <v>90</v>
+      </c>
+      <c r="I91" s="3">
+        <v>35</v>
+      </c>
+      <c r="J91" s="3">
+        <v>35</v>
+      </c>
+      <c r="K91" s="3">
+        <v>34</v>
+      </c>
+      <c r="N91" s="3">
+        <f t="shared" ref="N91:N92" si="24">ROUND(AVERAGE(C91:K91),2)</f>
+        <v>46</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" ref="O91:O92" si="25">ROUND(_xlfn.STDEV.S(C91:K91), 2)</f>
+        <v>24.78</v>
+      </c>
+      <c r="P91" s="3">
+        <f t="shared" ref="P91:P92" si="26">ROUND(MEDIAN(C91:K91), 2)</f>
+        <v>35</v>
+      </c>
+      <c r="R91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
+      <c r="A92" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="3">
+        <v>37</v>
+      </c>
+      <c r="D92" s="3">
+        <v>20</v>
+      </c>
+      <c r="E92" s="3">
+        <v>20</v>
+      </c>
+      <c r="F92" s="3">
+        <v>45</v>
+      </c>
+      <c r="G92" s="3">
+        <v>50</v>
+      </c>
+      <c r="H92" s="3">
+        <v>65</v>
+      </c>
+      <c r="I92" s="3">
+        <v>25</v>
+      </c>
+      <c r="J92" s="3">
+        <v>30</v>
+      </c>
+      <c r="K92" s="3">
+        <v>25</v>
+      </c>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3">
+        <f t="shared" si="24"/>
+        <v>35.22</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="25"/>
+        <v>15.43</v>
+      </c>
+      <c r="P92" s="3">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="Q92"/>
+      <c r="R92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3">
+        <v>6</v>
+      </c>
+      <c r="E93" s="3">
+        <v>4</v>
+      </c>
+      <c r="F93" s="3">
+        <v>4</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4</v>
+      </c>
+      <c r="H93" s="3">
+        <v>5</v>
+      </c>
+      <c r="I93" s="3">
+        <v>4</v>
+      </c>
+      <c r="J93" s="3">
+        <v>3</v>
+      </c>
+      <c r="K93" s="3">
+        <v>3</v>
+      </c>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3">
+        <f>ROUND(AVERAGE(C93:K93),2)</f>
+        <v>4.22</v>
+      </c>
+      <c r="O93" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C93:K93), 2)</f>
+        <v>0.97</v>
+      </c>
+      <c r="P93" s="3">
+        <f>ROUND(MEDIAN(C93:K93), 2)</f>
+        <v>4</v>
+      </c>
+      <c r="Q93"/>
+      <c r="R93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="D94" s="8"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:18" ht="18">
+      <c r="A95" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4</v>
+      </c>
+      <c r="F96" s="3">
+        <v>5</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4</v>
+      </c>
+      <c r="H96" s="3">
+        <v>4</v>
+      </c>
+      <c r="I96" s="3">
+        <v>4</v>
+      </c>
+      <c r="J96" s="3">
+        <v>3</v>
+      </c>
+      <c r="K96" s="3">
+        <v>5</v>
+      </c>
+      <c r="N96" s="3">
+        <f>ROUND(AVERAGE(C96:K96),2)</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" ref="O96:O100" si="27">ROUND(_xlfn.STDEV.S(C96:K96), 2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" ref="P96:P100" si="28">ROUND(MEDIAN(C96:K96), 2)</f>
+        <v>4</v>
+      </c>
+      <c r="R96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="3">
+        <v>5</v>
+      </c>
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
+      <c r="E97" s="3">
+        <v>5</v>
+      </c>
+      <c r="F97" s="3">
+        <v>5</v>
+      </c>
+      <c r="G97" s="3">
+        <v>6</v>
+      </c>
+      <c r="H97" s="3">
+        <v>4</v>
+      </c>
+      <c r="I97" s="3">
+        <v>5</v>
+      </c>
+      <c r="J97" s="3">
+        <v>4</v>
+      </c>
+      <c r="K97" s="3">
+        <v>6</v>
+      </c>
+      <c r="N97" s="3">
+        <f>ROUND(AVERAGE(C97:K97),2)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="O97" s="3">
+        <f t="shared" si="27"/>
+        <v>0.78</v>
+      </c>
+      <c r="P97" s="3">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="R97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="3">
+        <v>3</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2</v>
+      </c>
+      <c r="F98" s="3">
+        <v>3</v>
+      </c>
+      <c r="G98" s="3">
+        <v>3</v>
+      </c>
+      <c r="H98" s="3">
+        <v>4</v>
+      </c>
+      <c r="I98" s="3">
+        <v>4</v>
+      </c>
+      <c r="J98" s="3">
+        <v>3</v>
+      </c>
+      <c r="K98" s="3">
+        <v>2</v>
+      </c>
+      <c r="N98" s="3">
+        <f>ROUND(AVERAGE(C98:K98),2)</f>
+        <v>3</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" si="27"/>
+        <v>0.71</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="R98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2</v>
+      </c>
+      <c r="H99" s="3">
+        <v>3</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1</v>
+      </c>
+      <c r="N99" s="3">
+        <f>ROUND(AVERAGE(C99:K99),2)</f>
+        <v>1.89</v>
+      </c>
+      <c r="O99" s="3">
+        <f t="shared" si="27"/>
+        <v>0.78</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="R99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="22" customHeight="1">
+      <c r="A100" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1</v>
+      </c>
+      <c r="N100" s="3">
+        <f>ROUND(AVERAGE(C100:K100),2)</f>
         <v>1.67</v>
       </c>
-      <c r="O35" s="3">
-        <f t="shared" si="9"/>
+      <c r="O100" s="3">
+        <f t="shared" si="27"/>
         <v>0.71</v>
       </c>
-      <c r="P35" s="3">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="P100" s="3">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="R100" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="31" customHeight="1">
+      <c r="A101" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="3">
+        <v>6</v>
+      </c>
+      <c r="D101" s="3">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3">
+        <v>10</v>
+      </c>
+      <c r="H101" s="3">
+        <v>15</v>
+      </c>
+      <c r="I101" s="3">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3">
+        <v>10</v>
+      </c>
+      <c r="K101" s="3">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <f t="shared" ref="N101:N103" si="29">ROUND(AVERAGE(C101:K101),2)</f>
+        <v>8.56</v>
+      </c>
+      <c r="O101" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C101:K101), 2)</f>
+        <v>3.17</v>
+      </c>
+      <c r="P101" s="3">
+        <f t="shared" ref="P96:P103" si="30">ROUND(MEDIAN(C101:K101), 2)</f>
+        <v>8</v>
+      </c>
+      <c r="R101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="118" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="3">
-        <v>3</v>
-      </c>
-      <c r="M36" s="3">
-        <v>5</v>
-      </c>
-      <c r="R36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="31" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="3">
-        <v>38</v>
-      </c>
-      <c r="D37" s="3">
-        <v>60</v>
-      </c>
-      <c r="E37" s="3">
-        <v>30</v>
-      </c>
-      <c r="F37" s="3">
-        <v>40</v>
-      </c>
-      <c r="G37" s="3">
-        <v>45</v>
-      </c>
-      <c r="H37" s="3">
-        <v>135</v>
-      </c>
-      <c r="I37" s="3">
-        <v>63</v>
-      </c>
-      <c r="J37" s="3">
-        <v>40</v>
-      </c>
-      <c r="K37" s="3">
-        <v>35</v>
-      </c>
-      <c r="N37" s="3">
-        <f>ROUND(AVERAGE(C37:K37),2)</f>
-        <v>54</v>
-      </c>
-      <c r="O37" s="3">
-        <f>ROUND(_xlfn.STDEV.S(C37:K37), 2)</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="P37" s="3">
-        <f>ROUND(MEDIAN(C37:K37), 2)</f>
-        <v>40</v>
-      </c>
-      <c r="R37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="18" customFormat="1">
-      <c r="A38" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="20">
-        <v>30</v>
-      </c>
-      <c r="D38" s="20">
-        <v>50</v>
-      </c>
-      <c r="E38" s="20">
-        <v>30</v>
-      </c>
-      <c r="F38" s="20">
-        <v>35</v>
-      </c>
-      <c r="G38" s="20">
-        <v>45</v>
-      </c>
-      <c r="H38" s="20">
-        <v>50</v>
-      </c>
-      <c r="I38" s="20">
-        <v>50</v>
-      </c>
-      <c r="J38" s="20">
-        <v>35</v>
-      </c>
-      <c r="K38" s="20">
-        <v>25</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17">
-        <f>ROUND(AVERAGE(C38:K38),2)</f>
-        <v>38.89</v>
-      </c>
-      <c r="O38" s="17">
-        <f>ROUND(_xlfn.STDEV.S(C38:K38), 2)</f>
-        <v>9.93</v>
-      </c>
-      <c r="P38" s="17">
-        <f>ROUND(MEDIAN(C38:K38), 2)</f>
-        <v>35</v>
-      </c>
-      <c r="R38" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="7">
-        <v>4</v>
-      </c>
-      <c r="E39" s="7">
-        <v>4</v>
-      </c>
-      <c r="F39" s="7">
-        <v>5</v>
-      </c>
-      <c r="G39" s="7">
-        <v>6</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="B102" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="3">
+        <v>6</v>
+      </c>
+      <c r="D102" s="3">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>10</v>
+      </c>
+      <c r="G102" s="3">
+        <v>10</v>
+      </c>
+      <c r="H102" s="3">
+        <v>10</v>
+      </c>
+      <c r="I102" s="3">
+        <v>15</v>
+      </c>
+      <c r="J102" s="3">
+        <v>10</v>
+      </c>
+      <c r="K102" s="3">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
+        <f t="shared" si="29"/>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="O102" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C102:K102), 2)</f>
+        <v>3.19</v>
+      </c>
+      <c r="P102" s="3">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="R102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+      <c r="D103" s="7">
+        <v>6</v>
+      </c>
+      <c r="E103" s="7">
+        <v>4</v>
+      </c>
+      <c r="F103" s="7">
+        <v>5</v>
+      </c>
+      <c r="G103" s="7">
+        <v>6</v>
+      </c>
+      <c r="H103" s="7">
+        <v>8</v>
+      </c>
+      <c r="I103" s="7">
         <v>7</v>
       </c>
-      <c r="J39" s="7">
-        <v>4</v>
-      </c>
-      <c r="K39" s="7">
-        <v>5</v>
-      </c>
-      <c r="N39" s="3">
-        <f>ROUND(AVERAGE(C39:K39),2)</f>
-        <v>4.78</v>
-      </c>
-      <c r="O39" s="3">
-        <f>ROUND(_xlfn.STDEV.S(C39:K39), 2)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P39" s="3">
-        <f>ROUND(MEDIAN(C39:K39), 2)</f>
-        <v>5</v>
-      </c>
-      <c r="R39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1459786</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1689193</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1757982</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1519440</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1553432</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1482688</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1792647</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1693328</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1694763</v>
-      </c>
-      <c r="N40" s="3">
-        <f>ROUND(AVERAGE(C40:K40),2)</f>
-        <v>1627028.78</v>
-      </c>
-      <c r="O40" s="3">
-        <f>ROUND(_xlfn.STDEV.S(C40:K40), 2)</f>
-        <v>124107.96</v>
-      </c>
-      <c r="P40" s="3">
-        <f>ROUND(MEDIAN(C40:K40), 2)</f>
-        <v>1689193</v>
-      </c>
-      <c r="R40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="18" customFormat="1">
-      <c r="A41" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="17">
-        <v>2209831</v>
-      </c>
-      <c r="D41" s="17">
-        <v>2317639</v>
-      </c>
-      <c r="E41" s="17">
-        <v>2628742</v>
-      </c>
-      <c r="F41" s="17">
-        <v>2398173</v>
-      </c>
-      <c r="G41" s="17">
-        <v>2493872</v>
-      </c>
-      <c r="H41" s="17">
-        <v>2197365</v>
-      </c>
-      <c r="I41" s="17">
-        <v>2397486</v>
-      </c>
-      <c r="J41" s="17">
-        <v>2376549</v>
-      </c>
-      <c r="K41" s="17">
-        <v>2601837</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17">
-        <f>ROUND(AVERAGE(C41:K41),2)</f>
-        <v>2402388.2200000002</v>
-      </c>
-      <c r="O41" s="17">
-        <f>ROUND(_xlfn.STDEV.S(C41:K41), 2)</f>
-        <v>152639.21</v>
-      </c>
-      <c r="P41" s="17">
-        <f>ROUND(MEDIAN(C41:K41), 2)</f>
-        <v>2397486</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="19">
-        <v>36162</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="N42" s="3">
-        <f>ROUND(AVERAGE(C42:K42),2)</f>
-        <v>36162</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <f>ROUND(MEDIAN(C42:K42), 2)</f>
-        <v>36162</v>
-      </c>
-      <c r="R42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="B44" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="C47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>11</v>
+      <c r="J103" s="7">
+        <v>4</v>
+      </c>
+      <c r="K103" s="7">
+        <v>5</v>
+      </c>
+      <c r="N103" s="3">
+        <f t="shared" si="29"/>
+        <v>5.56</v>
+      </c>
+      <c r="O103" s="3">
+        <f>ROUND(_xlfn.STDEV.S(C103:K103), 2)</f>
+        <v>1.33</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="R103" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C42:K42"/>
+  <mergeCells count="39">
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -2984,12 +4598,37 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="A81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A95:B95"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="6">
@@ -3004,12 +4643,12 @@
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 least confident_x000a_7 very confident" sqref="D15 D33" xr:uid="{6690C0B2-95C5-554E-9AF3-358679F53239}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 least confident_x000a_7 very confident" sqref="D15 D30 D65 D98" xr:uid="{6690C0B2-95C5-554E-9AF3-358679F53239}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Required" sqref="C44 D23:D27 D16:D20" xr:uid="{84C7ACD6-C0E6-594D-9AE3-342F4CE20DED}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 very easy_x000a_7 very difficult" sqref="D34:D35" xr:uid="{DA46B2E8-A0A6-C946-ABC1-A36948CF98BC}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Time Required" sqref="C38 D23:D25 D16:D20 D58:D60 D51:D55 D91:D93 D84:D88" xr:uid="{84C7ACD6-C0E6-594D-9AE3-342F4CE20DED}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Rate on a Scale 1 - 7" prompt="1 very easy_x000a_7 very difficult" sqref="D31:D32 D66:D67 D99:D100" xr:uid="{DA46B2E8-A0A6-C946-ABC1-A36948CF98BC}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>

--- a/developer-usability-study/study-result/result_answers.xlsx
+++ b/developer-usability-study/study-result/result_answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syq/Documents/研/研1/dApp升级/SmartUpdater论文/TSE-修改/SmartUpdater/developer-usability-study/study-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A1DC4E32-177D-074D-A993-4FA8C3B5D2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9ECB9FAA-6656-1140-B9A2-571BECCD9F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="4320" windowWidth="32440" windowHeight="26740" xr2:uid="{F6FD7F2A-E65B-244C-8614-E312355BC8CE}"/>
+    <workbookView xWindow="10380" yWindow="520" windowWidth="32440" windowHeight="26740" xr2:uid="{F6FD7F2A-E65B-244C-8614-E312355BC8CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,11 +291,6 @@
   </si>
   <si>
     <t>yes
-The dynamic storage strategy is to assign a 32-bit slot to a 32-bit value, with a maximum of 2^256 slots per contract, which are allocated only when used. When I set a state, I assign a slot to a state, and write the corresponding value in the slot, which is permanently stored on the chain, and when I access the state, I access the corresponding value through the slot.</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes
 You can create a storage contract for balance storage so that there is no need for user balance mapping</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -430,6 +425,11 @@
   </si>
   <si>
     <t>smart contract oracles</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes
+The dynamic storage strategy is to assign a 32-bit slot to a 32-bit value, with a maximum of 2^256 slots per contract, which are allocated only when used. When I set a state, I assign a slot to a state, and write the corresponding value in the slot, which is permanently stored on the chain, and when I access the state, I access the corresponding value through the slot</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -732,16 +732,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:K12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1117,10 +1117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1148,17 +1148,17 @@
       <c r="K1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="18">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1186,37 +1186,37 @@
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="18">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="18">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1256,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -1310,38 +1310,38 @@
     </row>
     <row r="6" spans="1:18" ht="66" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="3">
         <v>4</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>39</v>
@@ -1474,12 +1474,12 @@
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>18</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>40</v>
@@ -1634,10 +1634,10 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="18">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="9" t="s">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2332,10 +2332,10 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:18" ht="18">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="9" t="s">
@@ -2595,28 +2595,28 @@
         <v>36</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>9</v>
@@ -2636,7 +2636,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3">
         <v>25</v>
@@ -2686,7 +2686,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="7">
         <v>20</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -2791,10 +2791,10 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="21">
-      <c r="A51" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="15"/>
+      <c r="A51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
         <v>0</v>
       </c>
@@ -2822,17 +2822,17 @@
       <c r="K51" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L51" s="13" t="s">
+      <c r="L51" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
     </row>
     <row r="52" spans="1:18" s="2" customFormat="1" ht="18">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -2859,10 +2859,10 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="18">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="9" t="s">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="Q62"/>
       <c r="R62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="Q63"/>
       <c r="R63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3375,10 +3375,10 @@
       <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="18">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="9" t="s">
@@ -3635,7 +3635,7 @@
         <v>35</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="3">
         <v>10</v>
@@ -3685,7 +3685,7 @@
         <v>37</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="3">
         <v>8</v>
@@ -3732,10 +3732,10 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" s="3">
         <v>5</v>
@@ -3781,10 +3781,10 @@
       </c>
     </row>
     <row r="84" spans="1:18" ht="21">
-      <c r="A84" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="15"/>
+      <c r="A84" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
         <v>0</v>
       </c>
@@ -3812,17 +3812,17 @@
       <c r="K84" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L84" s="13" t="s">
+      <c r="L84" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
     </row>
     <row r="85" spans="1:18" s="2" customFormat="1" ht="18">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -3849,10 +3849,10 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="18">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="12"/>
+      <c r="B86" s="15"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="9" t="s">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="Q95"/>
       <c r="R95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="6" customFormat="1" ht="20" customHeight="1">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Q96"/>
       <c r="R96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -4365,10 +4365,10 @@
       <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:18" ht="18">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="12"/>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="9" t="s">
@@ -4625,7 +4625,7 @@
         <v>35</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C104" s="3">
         <v>6</v>
@@ -4675,7 +4675,7 @@
         <v>37</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C105" s="3">
         <v>6</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="3">
         <v>5</v>
@@ -4772,19 +4772,19 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="L84:P84"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
     <mergeCell ref="L51:P51"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A65:B65"/>
@@ -4798,19 +4798,19 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="L84:P84"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="A84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="6">
